--- a/proj_wikipedia/records_athletics/outputs/tables/records_athletics_outdoorF_Kenyan.xlsx
+++ b/proj_wikipedia/records_athletics/outputs/tables/records_athletics_outdoorF_Kenyan.xlsx
@@ -218,7 +218,7 @@
     <t>9:14.09</t>
   </si>
   <si>
-    <t>14:20.87</t>
+    <t>14:18.37</t>
   </si>
   <si>
     <t>19:14</t>
@@ -473,7 +473,7 @@
     <t>14 September 2007</t>
   </si>
   <si>
-    <t>29 July 2011</t>
+    <t>8 June 2017</t>
   </si>
   <si>
     <t>13 October 2013</t>
@@ -593,7 +593,7 @@
     <t>Qatar Athletic Super Grand Prix</t>
   </si>
   <si>
-    <t>DN Galan</t>
+    <t>Golden Gala</t>
   </si>
   <si>
     <t>4 Mile of Groningen</t>
@@ -665,7 +665,7 @@
     <t>Doha, Qatar</t>
   </si>
   <si>
-    <t>Stockholm, Sweden</t>
+    <t>Rome, Italy</t>
   </si>
   <si>
     <t>Groningen, Netherlands</t>
@@ -1193,7 +1193,7 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>153</v>
